--- a/Hydro_capacities_per_country.xlsx
+++ b/Hydro_capacities_per_country.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schoeniger\Documents\Balmorel\Hydro capacities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geipel\Documents\GitHub\EEG-policy modelling\EEG-Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B189E1-1C22-4E86-BCBD-2EDCC1E5FA80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9975" tabRatio="773" xr2:uid="{211FF14C-1480-405B-9E42-7FC35BC2EDEA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="9975" tabRatio="773"/>
   </bookViews>
   <sheets>
     <sheet name="Hydro capacities" sheetId="31" r:id="rId1"/>
@@ -46,6 +45,7 @@
     <sheet name="table country names" sheetId="30" r:id="rId31"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hydro capacities'!$M$4:$N$33</definedName>
     <definedName name="ExterneDaten_1" localSheetId="7" hidden="1">DE!$A$3:$E$24</definedName>
     <definedName name="ExterneDaten_1" localSheetId="9" hidden="1">EE!$A$3:$E$23</definedName>
     <definedName name="ExterneDaten_1" localSheetId="10" hidden="1">ES!$A$3:$E$24</definedName>
@@ -67,7 +67,7 @@
     <definedName name="ExterneDaten_1" localSheetId="27" hidden="1">SI!$A$3:$E$24</definedName>
     <definedName name="ExterneDaten_1" localSheetId="28" hidden="1">SK!$A$3:$E$24</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,12 +77,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{688C7EFB-C779-4129-AF77-54AF1A84EFF5}">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,32 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{36EEDA6B-E66F-4B13-81E1-D7E3265AF507}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Windows User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-2019 data taken because 2020 incomplete
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{E3780D2F-2A1A-4F94-BD6E-0C0778C76D5E}">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{223D85F6-EBB9-4D91-BED2-6AFD616F7DD9}">
+    <comment ref="B32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="783">
   <si>
     <t>Country</t>
   </si>
@@ -2416,16 +2391,134 @@
   </si>
   <si>
     <t>here bidding zones used, because country data was incomplete</t>
+  </si>
+  <si>
+    <t>FLH run-of-river</t>
+  </si>
+  <si>
+    <t>FLH reservoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LV                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RO                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI </t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA                  </t>
+  </si>
+  <si>
+    <t>Country comparison</t>
+  </si>
+  <si>
+    <t>Hydro Total</t>
+  </si>
+  <si>
+    <t>Hyreps</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>Balmorel</t>
+  </si>
+  <si>
+    <t>Gustav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2478,8 +2571,50 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2504,8 +2639,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2676,12 +2817,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2734,19 +2890,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -3061,759 +3247,1912 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F541C8B-B4C2-4FAD-B0EF-115F9CE8A3FA}">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>681</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>680</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F3" s="40" t="s">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>779</v>
+      </c>
+      <c r="G3" s="47" t="s">
         <v>684</v>
       </c>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="H3" s="47"/>
+      <c r="J3" t="s">
+        <v>779</v>
+      </c>
+      <c r="N3" t="s">
+        <v>782</v>
+      </c>
+      <c r="O3" t="s">
+        <v>782</v>
+      </c>
+      <c r="P3" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>780</v>
+      </c>
+      <c r="R3" t="s">
+        <v>781</v>
+      </c>
+      <c r="S3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
         <v>682</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="D4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="E4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>683</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="H4" s="41" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J4" t="s">
+        <v>744</v>
+      </c>
+      <c r="K4" t="s">
+        <v>745</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>777</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>778</v>
+      </c>
+      <c r="O4" s="56" t="s">
+        <v>778</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" t="s">
+        <v>744</v>
+      </c>
+      <c r="S4" t="s">
+        <v>745</v>
+      </c>
+      <c r="T4" s="49"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="56"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>649</v>
       </c>
-      <c r="B5" s="38">
-        <f ca="1">INDIRECT(ADDRESS(13,5,1,1,A5),TRUE)</f>
+      <c r="C5" s="38">
+        <f ca="1">INDIRECT(ADDRESS(13,5,1,1,B5),TRUE)</f>
         <v>3120</v>
       </c>
-      <c r="C5" s="31">
-        <f ca="1">INDIRECT(ADDRESS(14,5,1,1,A5),TRUE)</f>
+      <c r="D5" s="31">
+        <f ca="1">INDIRECT(ADDRESS(14,5,1,1,B5),TRUE)</f>
         <v>5724</v>
       </c>
-      <c r="D5" s="32">
-        <f ca="1">INDIRECT(ADDRESS(15,5,1,1,A5),TRUE)</f>
+      <c r="E5" s="32">
+        <f ca="1">INDIRECT(ADDRESS(15,5,1,1,B5),TRUE)</f>
         <v>2436</v>
       </c>
-      <c r="F5" s="43">
-        <f ca="1">C5/($C5+$D5)</f>
+      <c r="G5" s="42">
+        <f ca="1">D5/($D5+$E5)</f>
         <v>0.70147058823529407</v>
       </c>
-      <c r="G5" s="44">
-        <f ca="1">D5/($C5+$D5)</f>
+      <c r="H5" s="43">
+        <f ca="1">E5/($D5+$E5)</f>
         <v>0.29852941176470588</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="I5" t="s">
+        <v>746</v>
+      </c>
+      <c r="J5" s="46">
+        <v>5592.1787709497203</v>
+      </c>
+      <c r="K5" s="46">
+        <v>1328.9839313761024</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>649</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>649</v>
+      </c>
+      <c r="N5" s="54">
+        <v>10.70374560546875</v>
+      </c>
+      <c r="O5" s="59">
+        <v>46.416210937500004</v>
+      </c>
+      <c r="P5">
+        <f ca="1">N5*G5</f>
+        <v>7.5083627261891079</v>
+      </c>
+      <c r="Q5">
+        <f ca="1">N5*H5</f>
+        <v>3.1953828792796415</v>
+      </c>
+      <c r="R5" s="46">
+        <f>J5</f>
+        <v>5592.1787709497203</v>
+      </c>
+      <c r="S5">
+        <f ca="1">1000*(O5-P5*R5/1000)/Q5</f>
+        <v>1385.782068317701</v>
+      </c>
+      <c r="T5" s="50"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="59"/>
+    </row>
+    <row r="6" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>650</v>
       </c>
-      <c r="B6" s="38" t="str">
-        <f ca="1">INDIRECT(ADDRESS(13,5,1,1,A6),TRUE)</f>
+      <c r="C6" s="38" t="str">
+        <f ca="1">INDIRECT(ADDRESS(13,5,1,1,B6),TRUE)</f>
         <v>1308</v>
       </c>
-      <c r="C6" s="31" t="str">
-        <f ca="1">INDIRECT(ADDRESS(14,5,1,1,A6),TRUE)</f>
+      <c r="D6" s="31" t="str">
+        <f ca="1">INDIRECT(ADDRESS(14,5,1,1,B6),TRUE)</f>
         <v>181</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="F6" s="43">
-        <f ca="1">C6/($C6+$D6)</f>
+      <c r="E6" s="32"/>
+      <c r="G6" s="42">
+        <f ca="1">D6/($D6+$E6)</f>
         <v>1</v>
       </c>
-      <c r="G6" s="44">
-        <f ca="1">D6/($C6+$D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H6" s="43">
+        <f ca="1">E6/($D6+$E6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>747</v>
+      </c>
+      <c r="J6" s="46">
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="K6" s="46">
+        <v>1263.9318885448915</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>650</v>
+      </c>
+      <c r="M6" s="55" t="s">
+        <v>650</v>
+      </c>
+      <c r="N6" s="52">
+        <v>0.12291976165771484</v>
+      </c>
+      <c r="O6" s="57">
+        <v>0.35055613708496092</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P33" ca="1" si="0">N6*G6</f>
+        <v>0.12291976165771484</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:S33" ca="1" si="1">N6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="46">
+        <f t="shared" ref="R6:R33" si="2">J6</f>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="53"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="57"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>651</v>
       </c>
-      <c r="B7" s="38" t="str">
-        <f t="shared" ref="B7:B33" ca="1" si="0">INDIRECT(ADDRESS(13,5,1,1,A7),TRUE)</f>
+      <c r="C7" s="38" t="str">
+        <f t="shared" ref="C7:C22" ca="1" si="3">INDIRECT(ADDRESS(13,5,1,1,B7),TRUE)</f>
         <v>864</v>
       </c>
-      <c r="C7" s="31" t="str">
-        <f t="shared" ref="C7:C33" ca="1" si="1">INDIRECT(ADDRESS(14,5,1,1,A7),TRUE)</f>
+      <c r="D7" s="31" t="str">
+        <f t="shared" ref="D7:D23" ca="1" si="4">INDIRECT(ADDRESS(14,5,1,1,B7),TRUE)</f>
         <v>537</v>
       </c>
-      <c r="D7" s="32" t="str">
-        <f t="shared" ref="D7:D33" ca="1" si="2">INDIRECT(ADDRESS(15,5,1,1,A7),TRUE)</f>
+      <c r="E7" s="32" t="str">
+        <f t="shared" ref="E7:E23" ca="1" si="5">INDIRECT(ADDRESS(15,5,1,1,B7),TRUE)</f>
         <v>1810</v>
       </c>
-      <c r="F7" s="43">
-        <f t="shared" ref="F7:F9" ca="1" si="3">C7/($C7+$D7)</f>
+      <c r="G7" s="42">
+        <f t="shared" ref="G7:G9" ca="1" si="6">D7/($D7+$E7)</f>
         <v>0.22880272688538561</v>
       </c>
-      <c r="G7" s="44">
-        <f t="shared" ref="G7:G9" ca="1" si="4">D7/($C7+$D7)</f>
+      <c r="H7" s="43">
+        <f t="shared" ref="H7:H9" ca="1" si="7">E7/($D7+$E7)</f>
         <v>0.77119727311461439</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="I7" t="s">
+        <v>748</v>
+      </c>
+      <c r="J7" s="46">
+        <v>2395.4372623574141</v>
+      </c>
+      <c r="K7" s="46">
+        <v>1100.0080327737166</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>651</v>
+      </c>
+      <c r="M7" s="50" t="s">
+        <v>651</v>
+      </c>
+      <c r="N7" s="52">
+        <v>2.4055921630859376</v>
+      </c>
+      <c r="O7" s="57">
+        <v>4.3093948364257813</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.55040604668817583</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8551861163977619</v>
+      </c>
+      <c r="R7" s="46">
+        <f t="shared" si="2"/>
+        <v>2395.4372623574141</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S6:S33" ca="1" si="8">1000*(O7-P7*R7/1000)/Q7</f>
+        <v>1612.2003373815774</v>
+      </c>
+      <c r="T7" s="50"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="57"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>652</v>
       </c>
-      <c r="B8" s="38" t="str">
+      <c r="C8" s="38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>6672</v>
+      </c>
+      <c r="D8" s="31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>635</v>
+      </c>
+      <c r="E8" s="32" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>5415</v>
+      </c>
+      <c r="G8" s="42">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.10495867768595041</v>
+      </c>
+      <c r="H8" s="43">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.89504132231404954</v>
+      </c>
+      <c r="I8" t="s">
+        <v>749</v>
+      </c>
+      <c r="J8" s="46">
+        <v>2871.9412677739956</v>
+      </c>
+      <c r="K8" s="46">
+        <v>2910.854540660298</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>652</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>652</v>
+      </c>
+      <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>6672</v>
-      </c>
-      <c r="C8" s="31" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>635</v>
-      </c>
-      <c r="D8" s="32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>5415</v>
-      </c>
-      <c r="F8" s="43">
+        <v>0</v>
+      </c>
+      <c r="R8" s="46">
+        <f t="shared" si="2"/>
+        <v>2871.9412677739956</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>653</v>
+      </c>
+      <c r="C9" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10495867768595041</v>
-      </c>
-      <c r="G8" s="44">
+        <v>n/e</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="G9" s="42" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="43" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>653</v>
+      </c>
+      <c r="J9" s="46">
+        <v>0</v>
+      </c>
+      <c r="K9" s="46">
+        <v>0</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>653</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>653</v>
+      </c>
+      <c r="N9" s="52">
+        <v>1.544201135635376E-3</v>
+      </c>
+      <c r="O9" s="57">
+        <v>4.702603340148926E-3</v>
+      </c>
+      <c r="P9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="50"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="57"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C10" s="38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>1172</v>
+      </c>
+      <c r="D10" s="31" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89504132231404954</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>653</v>
-      </c>
-      <c r="B9" s="38" t="str">
+        <v>334</v>
+      </c>
+      <c r="E10" s="32" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>754</v>
+      </c>
+      <c r="G10" s="42">
+        <f ca="1">D10/($D10+$E10)</f>
+        <v>0.30698529411764708</v>
+      </c>
+      <c r="H10" s="43">
+        <f ca="1">E10/($D10+$E10)</f>
+        <v>0.69301470588235292</v>
+      </c>
+      <c r="I10" t="s">
+        <v>750</v>
+      </c>
+      <c r="J10" s="46">
+        <v>3902.3569023569021</v>
+      </c>
+      <c r="K10" s="46">
+        <v>1142.3396514195833</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>654</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>654</v>
+      </c>
+      <c r="N10" s="52">
+        <v>1.1862899169921874</v>
+      </c>
+      <c r="O10" s="57">
+        <v>2.4188687133789064</v>
+      </c>
+      <c r="P10">
         <f t="shared" ca="1" si="0"/>
+        <v>0.36417355907664578</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.82211635791554161</v>
+      </c>
+      <c r="R10" s="46">
+        <f t="shared" si="2"/>
+        <v>3902.3569023569021</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1213.6159338685472</v>
+      </c>
+      <c r="T10" s="50"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="57"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>655</v>
+      </c>
+      <c r="C11" s="38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>9422</v>
+      </c>
+      <c r="D11" s="31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>3970</v>
+      </c>
+      <c r="E11" s="32" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1298</v>
+      </c>
+      <c r="G11" s="42">
+        <f ca="1">D11/($D11+$E11)</f>
+        <v>0.75360668185269553</v>
+      </c>
+      <c r="H11" s="43">
+        <f ca="1">E11/($D11+$E11)</f>
+        <v>0.24639331814730447</v>
+      </c>
+      <c r="I11" t="s">
+        <v>751</v>
+      </c>
+      <c r="J11" s="46">
+        <v>3184.588881462867</v>
+      </c>
+      <c r="K11" s="46">
+        <v>1926.3532642295802</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>655</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>655</v>
+      </c>
+      <c r="N11" s="52">
+        <v>4.7215722656250003</v>
+      </c>
+      <c r="O11" s="57">
+        <v>21.410610839843752</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5582084082253704</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1633638573996299</v>
+      </c>
+      <c r="R11" s="46">
+        <f t="shared" si="2"/>
+        <v>3184.588881462867</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ca="1" si="8"/>
+        <v>8663.8241690013492</v>
+      </c>
+      <c r="T11" s="50"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="57"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>656</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="G12" s="42">
+        <f t="shared" ref="G12:G21" ca="1" si="9">D12/($D12+$E12)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="43">
+        <f t="shared" ref="H12:H21" ca="1" si="10">E12/($D12+$E12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>752</v>
+      </c>
+      <c r="J12" s="46">
+        <v>3010.7526881720428</v>
+      </c>
+      <c r="K12" s="46" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>656</v>
+      </c>
+      <c r="M12" s="50" t="s">
+        <v>656</v>
+      </c>
+      <c r="N12" s="52">
+        <v>1.0999999046325684E-2</v>
+      </c>
+      <c r="O12" s="57">
+        <v>2.636296272277832E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0999999046325684E-2</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="46">
+        <f t="shared" si="2"/>
+        <v>3010.7526881720428</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="50"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="57"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>657</v>
+      </c>
+      <c r="C13" s="38">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="31">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="G13" s="42" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="43" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" t="s">
+        <v>753</v>
+      </c>
+      <c r="J13" s="46">
+        <v>3750</v>
+      </c>
+      <c r="K13" s="46" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>657</v>
+      </c>
+      <c r="M13" s="50" t="s">
+        <v>657</v>
+      </c>
+      <c r="N13" s="52">
+        <v>8.0999994277954103E-3</v>
+      </c>
+      <c r="O13" s="57">
+        <v>3.3113571166992185E-2</v>
+      </c>
+      <c r="P13" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" s="46">
+        <f t="shared" si="2"/>
+        <v>3750</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" s="50"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="57"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>658</v>
+      </c>
+      <c r="C14" s="38">
+        <f t="shared" ca="1" si="3"/>
+        <v>5645</v>
+      </c>
+      <c r="D14" s="31">
+        <f t="shared" ca="1" si="4"/>
+        <v>1155</v>
+      </c>
+      <c r="E14" s="32">
+        <f ca="1">19139-C14</f>
+        <v>13494</v>
+      </c>
+      <c r="G14" s="42">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.8844972353061649E-2</v>
+      </c>
+      <c r="H14" s="43">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.92115502764693835</v>
+      </c>
+      <c r="I14" t="s">
+        <v>754</v>
+      </c>
+      <c r="J14" s="46">
+        <v>2080.4269760588063</v>
+      </c>
+      <c r="K14" s="46">
+        <v>2108.6156529265863</v>
+      </c>
+      <c r="L14" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="M14" s="50" t="s">
+        <v>658</v>
+      </c>
+      <c r="N14" s="52">
+        <v>15.075469482421877</v>
+      </c>
+      <c r="O14" s="57">
+        <v>30.905349121093753</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1886249745509774</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ca="1" si="1"/>
+        <v>13.886844507870899</v>
+      </c>
+      <c r="R14" s="46">
+        <f t="shared" si="2"/>
+        <v>2080.4269760588063</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ca="1" si="8"/>
+        <v>2047.4414935304765</v>
+      </c>
+      <c r="T14" s="50"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="57"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>659</v>
+      </c>
+      <c r="C15" s="38" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>n/e</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="F9" s="43" t="e">
-        <f t="shared" si="3"/>
+      <c r="D15" s="31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>3148</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="G15" s="42">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="43">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>755</v>
+      </c>
+      <c r="J15" s="46">
+        <v>4060.0229313161876</v>
+      </c>
+      <c r="K15" s="46">
+        <v>3994.9558637709774</v>
+      </c>
+      <c r="L15" s="48" t="s">
+        <v>773</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>659</v>
+      </c>
+      <c r="N15" s="52">
+        <v>3.4058706359863282</v>
+      </c>
+      <c r="O15" s="57">
+        <v>15.110182128906249</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.4058706359863282</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="46">
+        <f t="shared" si="2"/>
+        <v>4060.0229313161876</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="50"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="57"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>660</v>
+      </c>
+      <c r="C16" s="38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>4656</v>
+      </c>
+      <c r="D16" s="31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>9759</v>
+      </c>
+      <c r="E16" s="32" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>7188</v>
+      </c>
+      <c r="G16" s="42">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.57585413347495129</v>
+      </c>
+      <c r="H16" s="43">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.42414586652504865</v>
+      </c>
+      <c r="I16" t="s">
+        <v>756</v>
+      </c>
+      <c r="J16" s="46">
+        <v>2945.5634899978645</v>
+      </c>
+      <c r="K16" s="46">
+        <v>2985.4743067565114</v>
+      </c>
+      <c r="L16" s="48" t="s">
+        <v>660</v>
+      </c>
+      <c r="M16" s="50" t="s">
+        <v>660</v>
+      </c>
+      <c r="N16" s="52">
+        <v>19.530544189453128</v>
+      </c>
+      <c r="O16" s="57">
+        <v>58.866774414062505</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.246744600511775</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.2837995889413509</v>
+      </c>
+      <c r="R16" s="46">
+        <f t="shared" si="2"/>
+        <v>2945.5634899978645</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ca="1" si="8"/>
+        <v>3107.1217816308558</v>
+      </c>
+      <c r="T16" s="50"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="57"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>661</v>
+      </c>
+      <c r="C17" s="38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>699</v>
+      </c>
+      <c r="D17" s="31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>299</v>
+      </c>
+      <c r="E17" s="32" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>2403</v>
+      </c>
+      <c r="G17" s="42">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.11065877128053293</v>
+      </c>
+      <c r="H17" s="43">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.88934122871946708</v>
+      </c>
+      <c r="I17" t="s">
+        <v>757</v>
+      </c>
+      <c r="J17" s="46">
+        <v>3883.0032243205897</v>
+      </c>
+      <c r="K17" s="46">
+        <v>1531.6558198122543</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>661</v>
+      </c>
+      <c r="M17" s="50" t="s">
+        <v>661</v>
+      </c>
+      <c r="N17" s="52">
+        <v>3.2138861999511716</v>
+      </c>
+      <c r="O17" s="57">
+        <v>5.2021088562011721</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.35564469792205783</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8582415020291139</v>
+      </c>
+      <c r="R17" s="46">
+        <f t="shared" si="2"/>
+        <v>3883.0032243205897</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ca="1" si="8"/>
+        <v>1336.8847050693962</v>
+      </c>
+      <c r="T17" s="50"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="57"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>662</v>
+      </c>
+      <c r="C18" s="38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>281</v>
+      </c>
+      <c r="D18" s="31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>421</v>
+      </c>
+      <c r="E18" s="32" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>1444</v>
+      </c>
+      <c r="G18" s="42">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.22573726541554959</v>
+      </c>
+      <c r="H18" s="43">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.77426273458445039</v>
+      </c>
+      <c r="I18" t="s">
+        <v>758</v>
+      </c>
+      <c r="J18" s="46">
+        <v>4377.9663100946764</v>
+      </c>
+      <c r="K18" s="46">
+        <v>3355.4858934169279</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>662</v>
+      </c>
+      <c r="M18" s="50" t="s">
+        <v>662</v>
+      </c>
+      <c r="N18" s="52">
+        <v>2.3770441284179689</v>
+      </c>
+      <c r="O18" s="57">
+        <v>7.4213277587890625</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.53658744132116076</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.840456687096808</v>
+      </c>
+      <c r="R18" s="46">
+        <f t="shared" si="2"/>
+        <v>4377.9663100946764</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ca="1" si="8"/>
+        <v>2755.9279464849046</v>
+      </c>
+      <c r="T18" s="50"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="57"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>663</v>
+      </c>
+      <c r="C19" s="38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>n/e</v>
+      </c>
+      <c r="D19" s="31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="E19" s="32" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="G19" s="42">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="H19" s="43">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="I19" t="s">
+        <v>759</v>
+      </c>
+      <c r="J19" s="46">
+        <v>4321.4285714285716</v>
+      </c>
+      <c r="K19" s="46">
+        <v>4357.1428571428569</v>
+      </c>
+      <c r="L19" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="M19" s="50" t="s">
+        <v>663</v>
+      </c>
+      <c r="N19" s="52">
+        <v>6.5498771667480471E-2</v>
+      </c>
+      <c r="O19" s="57">
+        <v>0.26976488494873047</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3878675000420938E-2</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.162009666705954E-2</v>
+      </c>
+      <c r="R19" s="46">
+        <f t="shared" si="2"/>
+        <v>4321.4285714285716</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ca="1" si="8"/>
+        <v>3901.3356644250975</v>
+      </c>
+      <c r="T19" s="50"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="57"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>664</v>
+      </c>
+      <c r="C20" s="38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>292</v>
+      </c>
+      <c r="D20" s="31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="G20" s="42">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="43">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>760</v>
+      </c>
+      <c r="J20" s="46">
+        <v>3843.75</v>
+      </c>
+      <c r="K20" s="46">
+        <v>1178.0487804878048</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>664</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>664</v>
+      </c>
+      <c r="N20" s="52">
+        <v>0.27812320327758788</v>
+      </c>
+      <c r="O20" s="57">
+        <v>0.84103906250000005</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27812320327758788</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="46">
+        <f t="shared" si="2"/>
+        <v>3843.75</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20" s="50"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="57"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>665</v>
+      </c>
+      <c r="C21" s="38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>7276</v>
+      </c>
+      <c r="D21" s="31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>10441</v>
+      </c>
+      <c r="E21" s="32" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>4459</v>
+      </c>
+      <c r="G21" s="42">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.70073825503355702</v>
+      </c>
+      <c r="H21" s="43">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.29926174496644298</v>
+      </c>
+      <c r="I21" t="s">
+        <v>761</v>
+      </c>
+      <c r="J21" s="46">
+        <v>2393.3335290612854</v>
+      </c>
+      <c r="K21" s="46">
+        <v>2425.761925167782</v>
+      </c>
+      <c r="L21" s="48" t="s">
+        <v>665</v>
+      </c>
+      <c r="M21" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="N21" s="52">
+        <v>15.244308837890625</v>
+      </c>
+      <c r="O21" s="57">
+        <v>44.404783203125007</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.682270374256108</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5620384636345168</v>
+      </c>
+      <c r="R21" s="46">
+        <f t="shared" si="2"/>
+        <v>2393.3335290612854</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ca="1" si="8"/>
+        <v>4129.4144054435237</v>
+      </c>
+      <c r="T21" s="50"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="57"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>666</v>
+      </c>
+      <c r="C22" s="38" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="D22" s="31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="G22" s="42">
+        <f ca="1">D22/($D22+$E22)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="43">
+        <f ca="1">E22/($D22+$E22)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>762</v>
+      </c>
+      <c r="J22" s="46">
+        <v>3206.8965517241377</v>
+      </c>
+      <c r="K22" s="46">
+        <v>841.32693844924063</v>
+      </c>
+      <c r="L22" s="48" t="s">
+        <v>666</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>666</v>
+      </c>
+      <c r="N22" s="52">
+        <v>0.16101399612426759</v>
+      </c>
+      <c r="O22" s="57">
+        <v>0.61406178283691415</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16101399612426759</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="46">
+        <f t="shared" si="2"/>
+        <v>3206.8965517241377</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22" s="50"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="57"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>667</v>
+      </c>
+      <c r="C23" s="38" t="str">
+        <f t="shared" ref="C23:C30" ca="1" si="11">INDIRECT(ADDRESS(13,5,1,1,B23),TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="31" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="E23" s="32" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G23" s="42">
+        <f ca="1">D23/($D23+$E23)</f>
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="H23" s="43">
+        <f ca="1">E23/($D23+$E23)</f>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="I23" t="s">
+        <v>763</v>
+      </c>
+      <c r="J23" s="46">
+        <v>2941.1764705882356</v>
+      </c>
+      <c r="K23" s="46">
+        <v>1504.9683830171634</v>
+      </c>
+      <c r="L23" s="48" t="s">
+        <v>667</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>667</v>
+      </c>
+      <c r="N23" s="52">
+        <v>4.6781959533691408E-2</v>
+      </c>
+      <c r="O23" s="57">
+        <v>0.14340351867675782</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2487471898396812E-2</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4294487635294598E-2</v>
+      </c>
+      <c r="R23" s="46">
+        <f t="shared" si="2"/>
+        <v>2941.1764705882356</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ca="1" si="8"/>
+        <v>3347.5932793942634</v>
+      </c>
+      <c r="T23" s="50"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="57"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>668</v>
+      </c>
+      <c r="C24" s="38" t="str">
+        <f ca="1">INDIRECT(ADDRESS(13,5,1,1,B24),TRUE)</f>
+        <v>n/e</v>
+      </c>
+      <c r="D24" s="31" t="str">
+        <f ca="1">INDIRECT(ADDRESS(14,5,1,1,B24),TRUE)</f>
+        <v>1539</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" t="s">
+        <v>764</v>
+      </c>
+      <c r="J24" s="46">
+        <v>2653.8461538461538</v>
+      </c>
+      <c r="K24" s="46">
+        <v>1828.1500480923373</v>
+      </c>
+      <c r="L24" s="48" t="s">
+        <v>668</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>668</v>
+      </c>
+      <c r="N24" s="52">
+        <v>1.8261652450561523</v>
+      </c>
+      <c r="O24" s="57">
+        <v>3.4827404327392579</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="46">
+        <f t="shared" si="2"/>
+        <v>2653.8461538461538</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24" s="50"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="57"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>774</v>
+      </c>
+      <c r="C25" s="38">
+        <v>0</v>
+      </c>
+      <c r="D25" s="60">
+        <v>0</v>
+      </c>
+      <c r="G25" s="42">
+        <f ca="1">D24/($D24+$E24)</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="43">
+        <f ca="1">E24/($D24+$E24)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>776</v>
+      </c>
+      <c r="J25" s="46">
+        <v>2456.1403508771932</v>
+      </c>
+      <c r="K25" s="46">
+        <v>864.02966625463534</v>
+      </c>
+      <c r="L25" s="48" t="s">
+        <v>774</v>
+      </c>
+      <c r="M25" s="50" t="s">
+        <v>774</v>
+      </c>
+      <c r="N25" s="52">
+        <v>0</v>
+      </c>
+      <c r="O25" s="57">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="46">
+        <f t="shared" si="2"/>
+        <v>2456.1403508771932</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" s="50"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="57"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>669</v>
+      </c>
+      <c r="C26" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="31">
+        <f t="shared" ref="D25:D30" ca="1" si="12">INDIRECT(ADDRESS(14,5,1,1,B26),TRUE)</f>
+        <v>38</v>
+      </c>
+      <c r="E26" s="32">
+        <f t="shared" ref="E26:E30" ca="1" si="13">INDIRECT(ADDRESS(15,5,1,1,B26),TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="42">
+        <f t="shared" ref="G25:G30" ca="1" si="14">D26/($D26+$E26)</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="43">
+        <f t="shared" ref="H25:H30" ca="1" si="15">E26/($D26+$E26)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>765</v>
+      </c>
+      <c r="J26" s="46">
+        <v>2666.6666666666665</v>
+      </c>
+      <c r="K26" s="46" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="44" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>654</v>
-      </c>
-      <c r="B10" s="38" t="str">
+      <c r="L26" s="48" t="s">
+        <v>669</v>
+      </c>
+      <c r="M26" s="50" t="s">
+        <v>669</v>
+      </c>
+      <c r="N26" s="52">
+        <v>3.9200003862380983E-2</v>
+      </c>
+      <c r="O26" s="57">
+        <v>9.9902439117431643E-2</v>
+      </c>
+      <c r="P26">
         <f t="shared" ca="1" si="0"/>
-        <v>1172</v>
-      </c>
-      <c r="C10" s="31" t="str">
+        <v>3.9200003862380983E-2</v>
+      </c>
+      <c r="Q26">
         <f t="shared" ca="1" si="1"/>
-        <v>334</v>
-      </c>
-      <c r="D10" s="32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>754</v>
-      </c>
-      <c r="F10" s="43">
-        <f ca="1">C10/($C10+$D10)</f>
-        <v>0.30698529411764708</v>
-      </c>
-      <c r="G10" s="44">
-        <f ca="1">D10/($C10+$D10)</f>
-        <v>0.69301470588235292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>655</v>
-      </c>
-      <c r="B11" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="R26" s="46">
+        <f t="shared" si="2"/>
+        <v>2666.6666666666665</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26" s="50"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="57"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>670</v>
+      </c>
+      <c r="C27" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>n/e</v>
+      </c>
+      <c r="D27" s="31" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>1149</v>
+      </c>
+      <c r="E27" s="32" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>28185</v>
+      </c>
+      <c r="G27" s="42">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.9169564328083453E-2</v>
+      </c>
+      <c r="H27" s="43">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.96083043567191651</v>
+      </c>
+      <c r="I27" t="s">
+        <v>766</v>
+      </c>
+      <c r="J27" s="46">
+        <v>4595.4766820822069</v>
+      </c>
+      <c r="K27" s="46">
+        <v>4657.7429447070781</v>
+      </c>
+      <c r="L27" s="48" t="s">
+        <v>670</v>
+      </c>
+      <c r="M27" s="50" t="s">
+        <v>670</v>
+      </c>
+      <c r="P27">
         <f t="shared" ca="1" si="0"/>
-        <v>9422</v>
-      </c>
-      <c r="C11" s="31" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <f t="shared" ca="1" si="1"/>
-        <v>3970</v>
-      </c>
-      <c r="D11" s="32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1298</v>
-      </c>
-      <c r="F11" s="43">
-        <f ca="1">C11/($C11+$D11)</f>
-        <v>0.75360668185269553</v>
-      </c>
-      <c r="G11" s="44">
-        <f ca="1">D11/($C11+$D11)</f>
-        <v>0.24639331814730447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>656</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="31" t="str">
+        <v>0</v>
+      </c>
+      <c r="R27" s="46">
+        <f t="shared" si="2"/>
+        <v>4595.4766820822069</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" s="50"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>671</v>
+      </c>
+      <c r="C28" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>1780</v>
+      </c>
+      <c r="D28" s="31" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>448</v>
+      </c>
+      <c r="E28" s="32" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>157</v>
+      </c>
+      <c r="G28" s="42">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.740495867768595</v>
+      </c>
+      <c r="H28" s="43">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.25950413223140495</v>
+      </c>
+      <c r="I28" t="s">
+        <v>767</v>
+      </c>
+      <c r="J28" s="46">
+        <v>3328.6908077994426</v>
+      </c>
+      <c r="K28" s="46">
+        <v>1595.2868852459017</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>775</v>
+      </c>
+      <c r="M28" s="50" t="s">
+        <v>671</v>
+      </c>
+      <c r="N28" s="52">
+        <v>0.8733246154785157</v>
+      </c>
+      <c r="O28" s="57">
+        <v>3.0990433349609376</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64669326898243806</v>
+      </c>
+      <c r="Q28">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="F12" s="43">
-        <f t="shared" ref="F12:F21" ca="1" si="5">C12/($C12+$D12)</f>
+        <v>0.22663134649607761</v>
+      </c>
+      <c r="R28" s="46">
+        <f t="shared" si="2"/>
+        <v>3328.6908077994426</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ca="1" si="8"/>
+        <v>4175.9509867700644</v>
+      </c>
+      <c r="T28" s="50"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="57"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>672</v>
+      </c>
+      <c r="C29" s="38">
+        <f t="shared" ca="1" si="11"/>
+        <v>2820</v>
+      </c>
+      <c r="D29" s="31">
+        <f t="shared" ca="1" si="12"/>
+        <v>2858</v>
+      </c>
+      <c r="E29" s="32">
+        <f t="shared" ca="1" si="13"/>
+        <v>1515</v>
+      </c>
+      <c r="G29" s="42">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.65355591127372514</v>
+      </c>
+      <c r="H29" s="43">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.34644408872627486</v>
+      </c>
+      <c r="I29" t="s">
+        <v>768</v>
+      </c>
+      <c r="J29" s="46">
+        <v>2566.27812083044</v>
+      </c>
+      <c r="K29" s="46">
+        <v>2601.0498230102544</v>
+      </c>
+      <c r="L29" s="48" t="s">
+        <v>672</v>
+      </c>
+      <c r="M29" s="50" t="s">
+        <v>672</v>
+      </c>
+      <c r="N29" s="52">
+        <v>5.0150501098632816</v>
+      </c>
+      <c r="O29" s="57">
+        <v>11.3316982421875</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2776156446350924</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7374344652281892</v>
+      </c>
+      <c r="R29" s="46">
+        <f t="shared" si="2"/>
+        <v>2566.27812083044</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ca="1" si="8"/>
+        <v>1680.8834999628859</v>
+      </c>
+      <c r="T29" s="50"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="57"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>673</v>
+      </c>
+      <c r="C30" s="38" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>n/e</v>
+      </c>
+      <c r="D30" s="31" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>2750</v>
+      </c>
+      <c r="E30" s="32" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>3390</v>
+      </c>
+      <c r="G30" s="42">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.44788273615635177</v>
+      </c>
+      <c r="H30" s="43">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.55211726384364823</v>
+      </c>
+      <c r="I30" t="s">
+        <v>769</v>
+      </c>
+      <c r="J30" s="46">
+        <v>354.88647581441262</v>
+      </c>
+      <c r="K30" s="46">
+        <v>0</v>
+      </c>
+      <c r="L30" s="48" t="s">
+        <v>673</v>
+      </c>
+      <c r="M30" s="50" t="s">
+        <v>673</v>
+      </c>
+      <c r="N30" s="52">
+        <v>7.8398110351562496</v>
+      </c>
+      <c r="O30" s="57">
+        <v>20.383586669921876</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.5113160173745417</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.3284950177817079</v>
+      </c>
+      <c r="R30" s="46">
+        <f t="shared" si="2"/>
+        <v>354.88647581441262</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ca="1" si="8"/>
+        <v>4421.2752987879849</v>
+      </c>
+      <c r="T30" s="50"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="57"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>676</v>
+      </c>
+      <c r="C31" s="38" t="str">
+        <f ca="1">INDIRECT(ADDRESS(13,3,1,1,B31),TRUE)</f>
+        <v>916</v>
+      </c>
+      <c r="D31" s="31" t="str">
+        <f ca="1">INDIRECT(ADDRESS(14,3,1,1,B31),TRUE)</f>
+        <v>1208</v>
+      </c>
+      <c r="E31" s="32" t="str">
+        <f ca="1">INDIRECT(ADDRESS(15,3,1,1,B31),TRUE)</f>
+        <v>418</v>
+      </c>
+      <c r="G31" s="42">
+        <f ca="1">D31/($D31+$E31)</f>
+        <v>0.74292742927429278</v>
+      </c>
+      <c r="H31" s="43">
+        <f ca="1">E31/($D31+$E31)</f>
+        <v>0.25707257072570727</v>
+      </c>
+      <c r="I31" t="s">
+        <v>770</v>
+      </c>
+      <c r="J31" s="46">
+        <v>4270.1612903225814</v>
+      </c>
+      <c r="K31" s="46">
+        <v>2302.7027027027029</v>
+      </c>
+      <c r="L31" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="M31" s="50" t="s">
+        <v>674</v>
+      </c>
+      <c r="N31" s="52">
+        <v>17.333246337890625</v>
+      </c>
+      <c r="O31" s="57">
+        <v>69.896120117187508</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.877344142787132</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4559021951034943</v>
+      </c>
+      <c r="R31" s="46">
+        <f t="shared" si="2"/>
+        <v>4270.1612903225814</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ca="1" si="8"/>
+        <v>3345.6263139881175</v>
+      </c>
+      <c r="T31" s="50"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="57"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>677</v>
+      </c>
+      <c r="C32" s="39">
+        <f t="shared" ref="C32" ca="1" si="16">INDIRECT(ADDRESS(13,5,1,1,B32),TRUE)</f>
+        <v>4052</v>
+      </c>
+      <c r="D32" s="33">
+        <f t="shared" ref="D32:D33" ca="1" si="17">INDIRECT(ADDRESS(14,5,1,1,B32),TRUE)</f>
+        <v>1882</v>
+      </c>
+      <c r="E32" s="34">
+        <f t="shared" ref="E32:E33" ca="1" si="18">INDIRECT(ADDRESS(15,5,1,1,B32),TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="44">
+        <f ca="1">D32/($D32+$E32)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="44">
-        <f t="shared" ref="G12:G21" ca="1" si="6">D12/($C12+$D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>657</v>
-      </c>
-      <c r="B13" s="38">
+      <c r="H32" s="45">
+        <f ca="1">E32/($D32+$E32)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>771</v>
+      </c>
+      <c r="J32" s="46">
+        <v>3520.0982581509602</v>
+      </c>
+      <c r="K32" s="46">
+        <v>1814.0069438433502</v>
+      </c>
+      <c r="L32" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="M32" s="50" t="s">
+        <v>675</v>
+      </c>
+      <c r="N32" s="52">
+        <v>1.2081736297607422</v>
+      </c>
+      <c r="O32" s="57">
+        <v>4.6581038208007817</v>
+      </c>
+      <c r="P32">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C13" s="31">
+        <v>1.2081736297607422</v>
+      </c>
+      <c r="Q32">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="F13" s="43" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="44" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>658</v>
-      </c>
-      <c r="B14" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>5645</v>
-      </c>
-      <c r="C14" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>1155</v>
-      </c>
-      <c r="D14" s="32">
-        <f ca="1">19139-B14</f>
-        <v>13494</v>
-      </c>
-      <c r="F14" s="43">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.8844972353061649E-2</v>
-      </c>
-      <c r="G14" s="44">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.92115502764693835</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>659</v>
-      </c>
-      <c r="B15" s="38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>n/e</v>
-      </c>
-      <c r="C15" s="31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>3148</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="F15" s="43">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="44">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>660</v>
-      </c>
-      <c r="B16" s="38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>4656</v>
-      </c>
-      <c r="C16" s="31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9759</v>
-      </c>
-      <c r="D16" s="32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>7188</v>
-      </c>
-      <c r="F16" s="43">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.57585413347495129</v>
-      </c>
-      <c r="G16" s="44">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.42414586652504865</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>661</v>
-      </c>
-      <c r="B17" s="38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>699</v>
-      </c>
-      <c r="C17" s="31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>299</v>
-      </c>
-      <c r="D17" s="32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>2403</v>
-      </c>
-      <c r="F17" s="43">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.11065877128053293</v>
-      </c>
-      <c r="G17" s="44">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.88934122871946708</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>662</v>
-      </c>
-      <c r="B18" s="38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>281</v>
-      </c>
-      <c r="C18" s="31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>421</v>
-      </c>
-      <c r="D18" s="32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>1444</v>
-      </c>
-      <c r="F18" s="43">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.22573726541554959</v>
-      </c>
-      <c r="G18" s="44">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.77426273458445039</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>663</v>
-      </c>
-      <c r="B19" s="38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>n/e</v>
-      </c>
-      <c r="C19" s="31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="D19" s="32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="F19" s="43">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.51724137931034486</v>
-      </c>
-      <c r="G19" s="44">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.48275862068965519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>664</v>
-      </c>
-      <c r="B20" s="38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>292</v>
-      </c>
-      <c r="C20" s="31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>216</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="F20" s="43">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G20" s="44">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>665</v>
-      </c>
-      <c r="B21" s="38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>7276</v>
-      </c>
-      <c r="C21" s="31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>10441</v>
-      </c>
-      <c r="D21" s="32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>4459</v>
-      </c>
-      <c r="F21" s="43">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.70073825503355702</v>
-      </c>
-      <c r="G21" s="44">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.29926174496644298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>666</v>
-      </c>
-      <c r="B22" s="38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="C22" s="31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="F22" s="43">
-        <f t="shared" ref="F22:F33" ca="1" si="7">C22/($C22+$D22)</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="44">
-        <f t="shared" ref="G22:G33" ca="1" si="8">D22/($C22+$D22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>667</v>
-      </c>
-      <c r="B23" s="38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C23" s="31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D23" s="32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="F23" s="43">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="G23" s="44">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.30555555555555558</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>668</v>
-      </c>
-      <c r="B24" s="38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>n/e</v>
-      </c>
-      <c r="C24" s="31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1539</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="F24" s="43">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G24" s="44">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>669</v>
-      </c>
-      <c r="B25" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C25" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="D25" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="43">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G25" s="44">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>670</v>
-      </c>
-      <c r="B26" s="38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>n/e</v>
-      </c>
-      <c r="C26" s="31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>1149</v>
-      </c>
-      <c r="D26" s="32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>28185</v>
-      </c>
-      <c r="F26" s="43">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.9169564328083453E-2</v>
-      </c>
-      <c r="G26" s="44">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.96083043567191651</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>671</v>
-      </c>
-      <c r="B27" s="38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>1780</v>
-      </c>
-      <c r="C27" s="31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>448</v>
-      </c>
-      <c r="D27" s="32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>157</v>
-      </c>
-      <c r="F27" s="43">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.740495867768595</v>
-      </c>
-      <c r="G27" s="44">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.25950413223140495</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>672</v>
-      </c>
-      <c r="B28" s="38">
-        <f t="shared" ca="1" si="0"/>
-        <v>2820</v>
-      </c>
-      <c r="C28" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>2858</v>
-      </c>
-      <c r="D28" s="32">
-        <f t="shared" ca="1" si="2"/>
-        <v>1515</v>
-      </c>
-      <c r="F28" s="43">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.65355591127372514</v>
-      </c>
-      <c r="G28" s="44">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.34644408872627486</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>673</v>
-      </c>
-      <c r="B29" s="38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>n/e</v>
-      </c>
-      <c r="C29" s="31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>2750</v>
-      </c>
-      <c r="D29" s="32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>3390</v>
-      </c>
-      <c r="F29" s="43">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.44788273615635177</v>
-      </c>
-      <c r="G29" s="44">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.55211726384364823</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>674</v>
-      </c>
-      <c r="B30" s="38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>n/e</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>16318</v>
-      </c>
-      <c r="F30" s="43">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="44">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>675</v>
-      </c>
-      <c r="B31" s="38">
-        <f ca="1">INDIRECT(ADDRESS(13,4,1,1,A31),TRUE)</f>
-        <v>180</v>
-      </c>
-      <c r="C31" s="31">
-        <f ca="1">INDIRECT(ADDRESS(14,4,1,1,A31),TRUE)</f>
-        <v>1053</v>
-      </c>
-      <c r="D31" s="32">
-        <f ca="1">INDIRECT(ADDRESS(15,4,1,1,A31),TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="43">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G31" s="44">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="R32" s="46">
+        <f t="shared" si="2"/>
+        <v>3520.0982581509602</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" s="50"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="57"/>
+    </row>
+    <row r="33" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>772</v>
+      </c>
+      <c r="J33" s="46">
+        <v>3260.869565217391</v>
+      </c>
+      <c r="K33" s="46">
+        <v>0</v>
+      </c>
+      <c r="M33" s="50" t="s">
         <v>676</v>
       </c>
-      <c r="B32" s="38" t="str">
-        <f ca="1">INDIRECT(ADDRESS(13,3,1,1,A32),TRUE)</f>
-        <v>916</v>
-      </c>
-      <c r="C32" s="31" t="str">
-        <f ca="1">INDIRECT(ADDRESS(14,3,1,1,A32),TRUE)</f>
-        <v>1208</v>
-      </c>
-      <c r="D32" s="32" t="str">
-        <f ca="1">INDIRECT(ADDRESS(15,3,1,1,A32),TRUE)</f>
-        <v>418</v>
-      </c>
-      <c r="F32" s="43">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.74292742927429278</v>
-      </c>
-      <c r="G32" s="44">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.25707257072570727</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>677</v>
-      </c>
-      <c r="B33" s="39">
-        <f t="shared" ca="1" si="0"/>
-        <v>4052</v>
-      </c>
-      <c r="C33" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>1882</v>
-      </c>
-      <c r="D33" s="34">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="45">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G33" s="46">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="N33" s="52">
+        <v>1.8315406188964845</v>
+      </c>
+      <c r="O33" s="57">
+        <v>4.5366378784179684</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="46">
+        <f t="shared" si="2"/>
+        <v>3260.869565217391</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" s="50"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="57"/>
     </row>
   </sheetData>
+  <autoFilter ref="M4:N31">
+    <sortState ref="M5:N34">
+      <sortCondition ref="M3:M30"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3821,7 +5160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC6AB10-F0A7-4862-91E8-C2AA794BE7D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle9"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -4214,7 +5553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D7DAA8-A212-42EA-815C-8F65E90BD20C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle10"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -4624,7 +5963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B72B4F0-46FD-4774-BE19-D331A48CCE02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle11"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -5027,7 +6366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307AFBC2-84F8-4562-AFA6-88976501FC2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -5430,7 +6769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBEA089-397D-4BAB-8D49-C66DFCB1F2BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle13"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -5833,7 +7172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21FB0C2-05CC-4D46-A8EC-F83EBF10DF4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle14"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -6236,7 +7575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22135977-CE1C-4BDF-82F8-A0F3C0CBCC64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle15"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -6639,7 +7978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A8E28F-86A1-4602-BF18-53B3AD09470E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle16"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -7042,7 +8381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025939F3-80EF-4D24-A6D3-ABB1D8A4B716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle17"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -7445,7 +8784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DB8A06-2986-4CA1-A333-1479ABA97E1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle18"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -7848,7 +9187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA2272A-B6A8-44F4-ADFE-DAAD14F7C8C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -8250,7 +9589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45196C00-E9C4-45D7-8C70-D7A6CB692C5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle19"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -8660,7 +9999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA743E2B-F6CC-4D1D-92D6-56347050B781}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle20"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -9063,7 +10402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F3162D-EB7D-4B23-864D-1098211933BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle21"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -9473,7 +10812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E2F2DA-EE64-4A5C-AC99-7645CA4AC6C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle22"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -9876,7 +11215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FE0D44-F689-41BA-B1E3-A98D9B511E05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle23"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -10279,7 +11618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AC911F-C568-47D0-B2DD-B5FDDE02D252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle24"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -10689,7 +12028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9362F9E7-0889-40C0-9D56-B313F39F66DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle25"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -11092,12 +12431,12 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22312472-0E78-46F0-A966-BF28982E0898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle26"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E13" sqref="E13:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11495,12 +12834,12 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B9C4FC-834E-44EF-A7BE-C29A21C99D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle27"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E13" sqref="E13:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11905,7 +13244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA47424-ED14-49C3-92EA-EF5B7B033EAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle28"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -12308,7 +13647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C1B474-C5FC-4C18-AF90-F61B41FDCBCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -12707,12 +14046,12 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A364B6-05E4-4A99-BC32-573E4554154D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle29"/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13717,7 +15056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CE1354-6FC9-494F-8353-45748481B6E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -13727,236 +15066,236 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f ca="1">IF(ROW(A1)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A1))&amp;"'!A1",MID(INDEX(x,ROW(A1)),FIND("]",INDEX(x,ROW(A1)))+1,31)))</f>
-        <v>Hydro capacities</v>
+      <c r="A1" t="e">
+        <f>IF(ROW(A1)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A1))&amp;"'!A1",MID(INDEX(x,ROW(A1)),FIND("]",INDEX(x,ROW(A1)))+1,31)))</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f ca="1">IF(ROW(A2)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A2))&amp;"'!A1",MID(INDEX(x,ROW(A2)),FIND("]",INDEX(x,ROW(A2)))+1,31)))</f>
-        <v>AT</v>
+        <f>IF(ROW(A2)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A2))&amp;"'!A1",MID(INDEX(x,ROW(A2)),FIND("]",INDEX(x,ROW(A2)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f ca="1">IF(ROW(A3)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A3))&amp;"'!A1",MID(INDEX(x,ROW(A3)),FIND("]",INDEX(x,ROW(A3)))+1,31)))</f>
-        <v>BE</v>
+        <f>IF(ROW(A3)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A3))&amp;"'!A1",MID(INDEX(x,ROW(A3)),FIND("]",INDEX(x,ROW(A3)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f ca="1">IF(ROW(A4)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A4))&amp;"'!A1",MID(INDEX(x,ROW(A4)),FIND("]",INDEX(x,ROW(A4)))+1,31)))</f>
-        <v>BG</v>
+        <f>IF(ROW(A4)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A4))&amp;"'!A1",MID(INDEX(x,ROW(A4)),FIND("]",INDEX(x,ROW(A4)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f ca="1">IF(ROW(A5)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A5))&amp;"'!A1",MID(INDEX(x,ROW(A5)),FIND("]",INDEX(x,ROW(A5)))+1,31)))</f>
-        <v>CH</v>
+        <f>IF(ROW(A5)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A5))&amp;"'!A1",MID(INDEX(x,ROW(A5)),FIND("]",INDEX(x,ROW(A5)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f ca="1">IF(ROW(A6)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A6))&amp;"'!A1",MID(INDEX(x,ROW(A6)),FIND("]",INDEX(x,ROW(A6)))+1,31)))</f>
-        <v>CY</v>
+        <f>IF(ROW(A6)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A6))&amp;"'!A1",MID(INDEX(x,ROW(A6)),FIND("]",INDEX(x,ROW(A6)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f ca="1">IF(ROW(A7)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A7))&amp;"'!A1",MID(INDEX(x,ROW(A7)),FIND("]",INDEX(x,ROW(A7)))+1,31)))</f>
-        <v>CZ</v>
+        <f>IF(ROW(A7)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A7))&amp;"'!A1",MID(INDEX(x,ROW(A7)),FIND("]",INDEX(x,ROW(A7)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f ca="1">IF(ROW(A8)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A8))&amp;"'!A1",MID(INDEX(x,ROW(A8)),FIND("]",INDEX(x,ROW(A8)))+1,31)))</f>
-        <v>DE</v>
+        <f>IF(ROW(A8)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A8))&amp;"'!A1",MID(INDEX(x,ROW(A8)),FIND("]",INDEX(x,ROW(A8)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f ca="1">IF(ROW(A9)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A9))&amp;"'!A1",MID(INDEX(x,ROW(A9)),FIND("]",INDEX(x,ROW(A9)))+1,31)))</f>
-        <v>DK</v>
+        <f>IF(ROW(A9)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A9))&amp;"'!A1",MID(INDEX(x,ROW(A9)),FIND("]",INDEX(x,ROW(A9)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f ca="1">IF(ROW(A10)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A10))&amp;"'!A1",MID(INDEX(x,ROW(A10)),FIND("]",INDEX(x,ROW(A10)))+1,31)))</f>
-        <v>EE</v>
+        <f>IF(ROW(A10)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A10))&amp;"'!A1",MID(INDEX(x,ROW(A10)),FIND("]",INDEX(x,ROW(A10)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f ca="1">IF(ROW(A11)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A11))&amp;"'!A1",MID(INDEX(x,ROW(A11)),FIND("]",INDEX(x,ROW(A11)))+1,31)))</f>
-        <v>ES</v>
+        <f>IF(ROW(A11)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A11))&amp;"'!A1",MID(INDEX(x,ROW(A11)),FIND("]",INDEX(x,ROW(A11)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f ca="1">IF(ROW(A12)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A12))&amp;"'!A1",MID(INDEX(x,ROW(A12)),FIND("]",INDEX(x,ROW(A12)))+1,31)))</f>
-        <v>FI</v>
+        <f>IF(ROW(A12)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A12))&amp;"'!A1",MID(INDEX(x,ROW(A12)),FIND("]",INDEX(x,ROW(A12)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f ca="1">IF(ROW(A13)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A13))&amp;"'!A1",MID(INDEX(x,ROW(A13)),FIND("]",INDEX(x,ROW(A13)))+1,31)))</f>
-        <v>FR</v>
+        <f>IF(ROW(A13)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A13))&amp;"'!A1",MID(INDEX(x,ROW(A13)),FIND("]",INDEX(x,ROW(A13)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f ca="1">IF(ROW(A14)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A14))&amp;"'!A1",MID(INDEX(x,ROW(A14)),FIND("]",INDEX(x,ROW(A14)))+1,31)))</f>
-        <v>GR</v>
+        <f>IF(ROW(A14)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A14))&amp;"'!A1",MID(INDEX(x,ROW(A14)),FIND("]",INDEX(x,ROW(A14)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f ca="1">IF(ROW(A15)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A15))&amp;"'!A1",MID(INDEX(x,ROW(A15)),FIND("]",INDEX(x,ROW(A15)))+1,31)))</f>
-        <v>HR</v>
+        <f>IF(ROW(A15)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A15))&amp;"'!A1",MID(INDEX(x,ROW(A15)),FIND("]",INDEX(x,ROW(A15)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f ca="1">IF(ROW(A16)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A16))&amp;"'!A1",MID(INDEX(x,ROW(A16)),FIND("]",INDEX(x,ROW(A16)))+1,31)))</f>
-        <v>HU</v>
+        <f>IF(ROW(A16)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A16))&amp;"'!A1",MID(INDEX(x,ROW(A16)),FIND("]",INDEX(x,ROW(A16)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f ca="1">IF(ROW(A17)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A17))&amp;"'!A1",MID(INDEX(x,ROW(A17)),FIND("]",INDEX(x,ROW(A17)))+1,31)))</f>
-        <v>IE</v>
+        <f>IF(ROW(A17)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A17))&amp;"'!A1",MID(INDEX(x,ROW(A17)),FIND("]",INDEX(x,ROW(A17)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f ca="1">IF(ROW(A18)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A18))&amp;"'!A1",MID(INDEX(x,ROW(A18)),FIND("]",INDEX(x,ROW(A18)))+1,31)))</f>
-        <v>IT</v>
+        <f>IF(ROW(A18)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A18))&amp;"'!A1",MID(INDEX(x,ROW(A18)),FIND("]",INDEX(x,ROW(A18)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f ca="1">IF(ROW(A19)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A19))&amp;"'!A1",MID(INDEX(x,ROW(A19)),FIND("]",INDEX(x,ROW(A19)))+1,31)))</f>
-        <v>LT</v>
+        <f>IF(ROW(A19)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A19))&amp;"'!A1",MID(INDEX(x,ROW(A19)),FIND("]",INDEX(x,ROW(A19)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f ca="1">IF(ROW(A20)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A20))&amp;"'!A1",MID(INDEX(x,ROW(A20)),FIND("]",INDEX(x,ROW(A20)))+1,31)))</f>
-        <v>LU</v>
+        <f>IF(ROW(A20)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A20))&amp;"'!A1",MID(INDEX(x,ROW(A20)),FIND("]",INDEX(x,ROW(A20)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f ca="1">IF(ROW(A21)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A21))&amp;"'!A1",MID(INDEX(x,ROW(A21)),FIND("]",INDEX(x,ROW(A21)))+1,31)))</f>
-        <v>LV</v>
+        <f>IF(ROW(A21)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A21))&amp;"'!A1",MID(INDEX(x,ROW(A21)),FIND("]",INDEX(x,ROW(A21)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f ca="1">IF(ROW(A22)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A22))&amp;"'!A1",MID(INDEX(x,ROW(A22)),FIND("]",INDEX(x,ROW(A22)))+1,31)))</f>
-        <v>NL</v>
+        <f>IF(ROW(A22)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A22))&amp;"'!A1",MID(INDEX(x,ROW(A22)),FIND("]",INDEX(x,ROW(A22)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f ca="1">IF(ROW(A23)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A23))&amp;"'!A1",MID(INDEX(x,ROW(A23)),FIND("]",INDEX(x,ROW(A23)))+1,31)))</f>
-        <v>NO</v>
+        <f>IF(ROW(A23)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A23))&amp;"'!A1",MID(INDEX(x,ROW(A23)),FIND("]",INDEX(x,ROW(A23)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f ca="1">IF(ROW(A24)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A24))&amp;"'!A1",MID(INDEX(x,ROW(A24)),FIND("]",INDEX(x,ROW(A24)))+1,31)))</f>
-        <v>PL</v>
+        <f>IF(ROW(A24)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A24))&amp;"'!A1",MID(INDEX(x,ROW(A24)),FIND("]",INDEX(x,ROW(A24)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f ca="1">IF(ROW(A25)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A25))&amp;"'!A1",MID(INDEX(x,ROW(A25)),FIND("]",INDEX(x,ROW(A25)))+1,31)))</f>
-        <v>PT</v>
+        <f>IF(ROW(A25)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A25))&amp;"'!A1",MID(INDEX(x,ROW(A25)),FIND("]",INDEX(x,ROW(A25)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f ca="1">IF(ROW(A26)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A26))&amp;"'!A1",MID(INDEX(x,ROW(A26)),FIND("]",INDEX(x,ROW(A26)))+1,31)))</f>
-        <v>RO</v>
+        <f>IF(ROW(A26)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A26))&amp;"'!A1",MID(INDEX(x,ROW(A26)),FIND("]",INDEX(x,ROW(A26)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f ca="1">IF(ROW(A27)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A27))&amp;"'!A1",MID(INDEX(x,ROW(A27)),FIND("]",INDEX(x,ROW(A27)))+1,31)))</f>
-        <v>SE</v>
+        <f>IF(ROW(A27)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A27))&amp;"'!A1",MID(INDEX(x,ROW(A27)),FIND("]",INDEX(x,ROW(A27)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f ca="1">IF(ROW(A28)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A28))&amp;"'!A1",MID(INDEX(x,ROW(A28)),FIND("]",INDEX(x,ROW(A28)))+1,31)))</f>
-        <v>SI</v>
+        <f>IF(ROW(A28)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A28))&amp;"'!A1",MID(INDEX(x,ROW(A28)),FIND("]",INDEX(x,ROW(A28)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f ca="1">IF(ROW(A29)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A29))&amp;"'!A1",MID(INDEX(x,ROW(A29)),FIND("]",INDEX(x,ROW(A29)))+1,31)))</f>
-        <v>SK</v>
+        <f>IF(ROW(A29)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A29))&amp;"'!A1",MID(INDEX(x,ROW(A29)),FIND("]",INDEX(x,ROW(A29)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f ca="1">IF(ROW(A30)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A30))&amp;"'!A1",MID(INDEX(x,ROW(A30)),FIND("]",INDEX(x,ROW(A30)))+1,31)))</f>
-        <v>UK</v>
+        <f>IF(ROW(A30)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A30))&amp;"'!A1",MID(INDEX(x,ROW(A30)),FIND("]",INDEX(x,ROW(A30)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f ca="1">IF(ROW(A31)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A31))&amp;"'!A1",MID(INDEX(x,ROW(A31)),FIND("]",INDEX(x,ROW(A31)))+1,31)))</f>
-        <v>table country names</v>
+        <f>IF(ROW(A31)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A31))&amp;"'!A1",MID(INDEX(x,ROW(A31)),FIND("]",INDEX(x,ROW(A31)))+1,31)))</f>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f ca="1">IF(ROW(A32)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A32))&amp;"'!A1",MID(INDEX(x,ROW(A32)),FIND("]",INDEX(x,ROW(A32)))+1,31)))</f>
+        <f>IF(ROW(A32)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A32))&amp;"'!A1",MID(INDEX(x,ROW(A32)),FIND("]",INDEX(x,ROW(A32)))+1,31)))</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f ca="1">IF(ROW(A33)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A33))&amp;"'!A1",MID(INDEX(x,ROW(A33)),FIND("]",INDEX(x,ROW(A33)))+1,31)))</f>
+        <f>IF(ROW(A33)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A33))&amp;"'!A1",MID(INDEX(x,ROW(A33)),FIND("]",INDEX(x,ROW(A33)))+1,31)))</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f ca="1">IF(ROW(A34)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A34))&amp;"'!A1",MID(INDEX(x,ROW(A34)),FIND("]",INDEX(x,ROW(A34)))+1,31)))</f>
+        <f>IF(ROW(A34)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A34))&amp;"'!A1",MID(INDEX(x,ROW(A34)),FIND("]",INDEX(x,ROW(A34)))+1,31)))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f ca="1">IF(ROW(A35)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A35))&amp;"'!A1",MID(INDEX(x,ROW(A35)),FIND("]",INDEX(x,ROW(A35)))+1,31)))</f>
+        <f>IF(ROW(A35)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A35))&amp;"'!A1",MID(INDEX(x,ROW(A35)),FIND("]",INDEX(x,ROW(A35)))+1,31)))</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f ca="1">IF(ROW(A36)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A36))&amp;"'!A1",MID(INDEX(x,ROW(A36)),FIND("]",INDEX(x,ROW(A36)))+1,31)))</f>
+        <f>IF(ROW(A36)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A36))&amp;"'!A1",MID(INDEX(x,ROW(A36)),FIND("]",INDEX(x,ROW(A36)))+1,31)))</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f ca="1">IF(ROW(A37)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A37))&amp;"'!A1",MID(INDEX(x,ROW(A37)),FIND("]",INDEX(x,ROW(A37)))+1,31)))</f>
+        <f>IF(ROW(A37)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A37))&amp;"'!A1",MID(INDEX(x,ROW(A37)),FIND("]",INDEX(x,ROW(A37)))+1,31)))</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f ca="1">IF(ROW(A38)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A38))&amp;"'!A1",MID(INDEX(x,ROW(A38)),FIND("]",INDEX(x,ROW(A38)))+1,31)))</f>
+        <f>IF(ROW(A38)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A38))&amp;"'!A1",MID(INDEX(x,ROW(A38)),FIND("]",INDEX(x,ROW(A38)))+1,31)))</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f ca="1">IF(ROW(A39)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A39))&amp;"'!A1",MID(INDEX(x,ROW(A39)),FIND("]",INDEX(x,ROW(A39)))+1,31)))</f>
+        <f>IF(ROW(A39)&gt;COUNTA(x),"",HYPERLINK("#'"&amp;INDEX(x,ROW(A39))&amp;"'!A1",MID(INDEX(x,ROW(A39)),FIND("]",INDEX(x,ROW(A39)))+1,31)))</f>
         <v/>
       </c>
     </row>
@@ -13966,7 +15305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B42252-2988-4A3A-98A4-D497B976C245}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -14369,7 +15708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0246C71-00EB-4ECB-8238-3B1FB9A8FD2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -14773,7 +16112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6C5178-4A5D-4416-8C7D-FF7D51E49AF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -15176,7 +16515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F9D452-955A-415E-A221-1DA63AF389AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -15579,7 +16918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8408FA5-E3C0-44FA-9252-BF47DEA01102}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -15982,7 +17321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E848D7A3-2145-4690-99EE-FA2B28C35658}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle8"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
